--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,30 +55,24 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -94,10 +88,16 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>di</t>
+    <t>pay</t>
   </si>
   <si>
     <t>apart</t>
@@ -109,66 +109,63 @@
     <t>ok</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -184,15 +181,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -205,12 +202,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -220,37 +217,37 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -614,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -733,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,31 +748,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7605633802816901</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.703125</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,31 +848,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>75</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6">
-        <v>0.8172043010752689</v>
-      </c>
-      <c r="L6">
-        <v>76</v>
-      </c>
-      <c r="M6">
-        <v>76</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6935483870967742</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>0.765625</v>
@@ -933,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C8">
         <v>26</v>
@@ -951,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6486486486486487</v>
+        <v>0.5878378378378378</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.5466284074605452</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L9">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M9">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6285714285714286</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6285714285714286</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.4896265560165975</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L11">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>246</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.4426229508196721</v>
+        <v>0.4401639344262295</v>
       </c>
       <c r="L12">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M12">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5636363636363636</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.3792048929663608</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5631067961165048</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C14">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14">
         <v>0.325</v>
@@ -1283,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5476190476190477</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.3174603174603174</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.3072289156626506</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4898550724637681</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C17">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.2063492063492063</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4814814814814815</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.2027972027972028</v>
+        <v>0.1875</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4096385542168675</v>
+        <v>0.390625</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.1935483870967742</v>
+        <v>0.184</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4015748031496063</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C20">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.1875</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3968253968253968</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.1507449605609115</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L21">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>969</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.390625</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.144578313253012</v>
+        <v>0.1577563540753725</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>213</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3789473684210526</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,31 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.08512020792722547</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="L23">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1408</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3696682464454976</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C24">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.06963788300835655</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3671875</v>
+        <v>0.3359375</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.06149732620320856</v>
+        <v>0.06957087126137841</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>351</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3650793650793651</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.04527296937416778</v>
+        <v>0.04394141145139813</v>
       </c>
       <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
         <v>34</v>
-      </c>
-      <c r="M26">
-        <v>35</v>
       </c>
       <c r="N26">
         <v>0.97</v>
@@ -1875,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3483146067415731</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1909,13 +1906,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3118811881188119</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1927,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,13 +1932,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2371134020618557</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1953,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1961,13 +1958,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1965811965811966</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1979,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1987,13 +1984,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.19</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2005,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>162</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2013,25 +2010,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1835443037974684</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,13 +2036,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1739130434782609</v>
+        <v>0.1646884272997033</v>
       </c>
       <c r="C33">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D33">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2057,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>228</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,13 +2062,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.172106824925816</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C34">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2083,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>558</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2091,13 +2088,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1464968152866242</v>
+        <v>0.1613924050632911</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2109,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2117,13 +2114,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1436781609195402</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2135,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>298</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2143,13 +2140,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1329113924050633</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2161,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>274</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,13 +2166,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1314285714285714</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2187,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>152</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2195,13 +2192,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1261682242990654</v>
+        <v>0.125</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2213,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2221,25 +2218,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.118942731277533</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>400</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2247,13 +2244,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1123595505617977</v>
+        <v>0.09737827715355805</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2265,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1048387096774194</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C42">
         <v>26</v>
@@ -2291,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>222</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2299,25 +2296,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.06575342465753424</v>
+        <v>0.06473214285714286</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>341</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,7 +2322,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06197183098591549</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="C44">
         <v>22</v>
@@ -2343,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,25 +2348,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.06013363028953229</v>
+        <v>0.05950413223140496</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>422</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,25 +2374,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.05766062602965404</v>
+        <v>0.05594405594405594</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>572</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2403,25 +2400,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0514018691588785</v>
+        <v>0.04695431472081218</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="F47">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>406</v>
+        <v>751</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2429,51 +2426,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.04689480354879594</v>
+        <v>0.03369065849923431</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.03981623277182236</v>
-      </c>
-      <c r="C49">
-        <v>26</v>
-      </c>
-      <c r="D49">
-        <v>28</v>
-      </c>
-      <c r="E49">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
